--- a/doc/2_外部設計書/02_外部設計書_丸山担当分.xlsx
+++ b/doc/2_外部設計書/02_外部設計書_丸山担当分.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\開発演習\外部設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A2\doc\2_外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0CDCFC-5DBA-4FAB-B6F9-D215BB356690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACB393F-125B-4FA0-92C5-F75993739BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="150">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -2380,16 +2380,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>追加済みと反転</t>
-    <rPh sb="0" eb="3">
-      <t>ツイカズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>２．マイコンテンツに追加をクリック</t>
     <rPh sb="10" eb="12">
       <t>ツイカ</t>
@@ -2608,16 +2598,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>６．自分のレビューの送信ボタンをクリック</t>
-    <rPh sb="2" eb="4">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>他ユーザのレビュータブと自分のレビュータブの2つのタブが存在する。初期画面では他ユーザのレビュータブが表示される。</t>
     <rPh sb="0" eb="1">
       <t>タ</t>
@@ -2636,42 +2616,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>７．自分のレビュータブをクリック</t>
-    <rPh sb="2" eb="4">
-      <t>ジブン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>他ユーザのレビュータブから、自分のレビュータブに表示が切り替わる。</t>
-    <rPh sb="0" eb="1">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力した内容</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -2736,6 +2680,663 @@
       <t>シュトク</t>
     </rPh>
     <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウで他ユーザのレビューの全文が表示される。</t>
+  </si>
+  <si>
+    <t>いいねの色が反転する。</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>いいねを押したという情報が送信され、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>いいね</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>カラムのカウントが＋１される。</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ボタンの色が反転し、追加済みであることが分かるように表示される。</t>
+  </si>
+  <si>
+    <t>ボタンの色が反転し、追加済みであることが分かるように表示される。</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マイコンテンツ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルにそのコンテンツのコンテンツIDが1件のデータとして登録される。その際、属性は0として登録されるため、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コレクション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とは区別される。</t>
+    </r>
+    <rPh sb="45" eb="46">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>クベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マイコンテンツ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルにそのコンテンツの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コンテンツID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が1件のデータとして登録される。その際、属性は1として登録されるため、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>今後見るリスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>とは区別される。</t>
+    </r>
+    <rPh sb="29" eb="30">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="62" eb="65">
+      <t>コンゴミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マイコンテンツ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルの、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コンテンツID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>が一致するデータの内、ユーザIDを取得する。ランダムで1人の他ユーザを選択し、その他ユーザとのチャット画面に遷移する。</t>
+    </r>
+    <rPh sb="21" eb="23">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>リ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その際、マイページのチャット履歴にその他ユーザとのチャット履歴が作成される。チャットテーブルにもその他ユーザとのチャット履歴が1件のデータとして追加される。</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>ユーザのマイページの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コレクション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に、そのコンテンツがマイコンテンツとして追加される。</t>
+    </r>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザのマイページの今後見るリストに、そのコンテンツが追加される。</t>
+    <rPh sb="10" eb="13">
+      <t>コンゴミ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>６．自分のレビュータブをクリック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>他ユーザのレビュータブから、自分のレビュータブに表示が切り替わる。</t>
+  </si>
+  <si>
+    <t>７．レビューを書くボタンをクリック</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>８．レビューの送信ボタンをクリック</t>
+    <rPh sb="7" eb="9">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウでレビューの記載欄が表示される。テキストボックス内に、レビューのタイトルと本文を入力できる。</t>
+    <rPh sb="15" eb="18">
+      <t>キサイラン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホンブン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>９．自分が投稿したレビューの編集ボタンをクリック</t>
+    <rPh sb="2" eb="4">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>６．他ユーザのレビューをクリック</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>モーダルウィンドウで７と同様のレビューの記載欄が表示される。記載欄には、自分が書いたレビューの内容が表示されており、ユーザが自由に書き換えることができる。</t>
+    <rPh sb="12" eb="14">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>キサイラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>テキストボックスに入力した内容を送信する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルにのデータがその内容で更新される。</t>
+    </r>
+    <rPh sb="37" eb="39">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>テキストボックスに入力した内容を送信する。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルに1件のデータとして登録される。</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>１１．１０のモーダルウィンドウの更新ボタンをクリック</t>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>１２．自分が投稿したレビューの削除ボタンをクリック</t>
+    <rPh sb="3" eb="5">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>「はい」を選択すると、そのレビューの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビューID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を送信し、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビュー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テーブルからその</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レビューID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>のデータが削除され、ウィンドウを閉じる。「いいえ」を選択すると、何も処理を行わずにウィンドウを閉じる。</t>
+    </r>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テキストボックスが空欄の場合は、「レビューを入力してください」とアラートウィンドウを表示する。アラートウィンドウの「閉じる」をクリックするとウィンドウを閉じる（JavaScript）。</t>
+  </si>
+  <si>
+    <t>テキストボックスが空欄の場合は、「レビューを入力してください」とアラートウィンドウを表示する。アラートウィンドウの「閉じる」をクリックするとウィンドウを閉じる（JavaScript）。</t>
+    <rPh sb="9" eb="11">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「本当に削除してもよろしいですか？」という確認ウィンドウが表示される（JavaScript）。</t>
+    <rPh sb="1" eb="3">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -3146,6 +3747,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3185,9 +3795,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3196,12 +3803,6 @@
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3508,10 +4109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBD7C0C-D3E4-4E37-8FD5-A86D6EF6083C}">
-  <dimension ref="A1:AN120"/>
+  <dimension ref="A1:AN135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Y83" sqref="Y83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3520,192 +4121,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -5359,7 +5960,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -5403,7 +6004,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -5447,7 +6048,7 @@
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -5532,7 +6133,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -5576,7 +6177,9 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
+      <c r="D51" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -5618,7 +6221,9 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>129</v>
+      </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -5660,7 +6265,9 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="D53" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -5744,7 +6351,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -5789,7 +6396,7 @@
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -5832,7 +6439,9 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>128</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -5873,8 +6482,9 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="D58" s="1" t="s">
-        <v>115</v>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -5916,9 +6526,8 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -5959,6 +6568,8 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -6039,6 +6650,9 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
+      <c r="C62" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -6079,8 +6693,8 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="1" t="s">
-        <v>121</v>
+      <c r="D63" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
@@ -6091,11 +6705,11 @@
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
       <c r="S63" s="8"/>
       <c r="T63" s="8"/>
       <c r="U63" s="8"/>
@@ -6122,6 +6736,9 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
+      <c r="D64" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -6131,11 +6748,11 @@
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
       <c r="S64" s="8"/>
       <c r="T64" s="8"/>
       <c r="U64" s="8"/>
@@ -6171,11 +6788,11 @@
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
       <c r="S65" s="8"/>
       <c r="T65" s="8"/>
       <c r="U65" s="8"/>
@@ -6202,6 +6819,9 @@
     <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
+      <c r="C66" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -6242,8 +6862,8 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="C67" s="1" t="s">
-        <v>122</v>
+      <c r="D67" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -6254,11 +6874,11 @@
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="8"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
       <c r="S67" s="8"/>
       <c r="T67" s="8"/>
       <c r="U67" s="8"/>
@@ -6286,7 +6906,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
@@ -6297,11 +6917,11 @@
       <c r="K68" s="8"/>
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
       <c r="S68" s="8"/>
       <c r="T68" s="8"/>
       <c r="U68" s="8"/>
@@ -6337,11 +6957,11 @@
       <c r="K69" s="8"/>
       <c r="L69" s="8"/>
       <c r="M69" s="8"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
       <c r="S69" s="8"/>
       <c r="T69" s="8"/>
       <c r="U69" s="8"/>
@@ -6368,6 +6988,9 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
+      <c r="C70" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -6377,11 +7000,11 @@
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="8"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
-      <c r="P70" s="8"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="8"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
       <c r="S70" s="8"/>
       <c r="T70" s="8"/>
       <c r="U70" s="8"/>
@@ -6408,6 +7031,9 @@
     <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
+      <c r="D71" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -6417,11 +7043,11 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
-      <c r="P71" s="8"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="8"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
       <c r="S71" s="8"/>
       <c r="T71" s="8"/>
       <c r="U71" s="8"/>
@@ -6448,9 +7074,6 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -6460,11 +7083,11 @@
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
       <c r="S72" s="8"/>
       <c r="T72" s="8"/>
       <c r="U72" s="8"/>
@@ -6491,9 +7114,6 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="D73" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -6503,11 +7123,11 @@
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
       <c r="S73" s="8"/>
       <c r="T73" s="8"/>
       <c r="U73" s="8"/>
@@ -6534,6 +7154,9 @@
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
+      <c r="C74" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -6543,11 +7166,11 @@
       <c r="K74" s="8"/>
       <c r="L74" s="8"/>
       <c r="M74" s="8"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
       <c r="S74" s="8"/>
       <c r="T74" s="8"/>
       <c r="U74" s="8"/>
@@ -6574,6 +7197,9 @@
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
+      <c r="D75" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -6583,11 +7209,11 @@
       <c r="K75" s="8"/>
       <c r="L75" s="8"/>
       <c r="M75" s="8"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
-      <c r="P75" s="8"/>
-      <c r="Q75" s="8"/>
-      <c r="R75" s="8"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
       <c r="S75" s="8"/>
       <c r="T75" s="8"/>
       <c r="U75" s="8"/>
@@ -6623,11 +7249,11 @@
       <c r="K76" s="8"/>
       <c r="L76" s="8"/>
       <c r="M76" s="8"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
-      <c r="P76" s="8"/>
-      <c r="Q76" s="8"/>
-      <c r="R76" s="8"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
       <c r="S76" s="8"/>
       <c r="T76" s="8"/>
       <c r="U76" s="8"/>
@@ -6654,6 +7280,9 @@
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
+      <c r="C77" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -6694,6 +7323,9 @@
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
+      <c r="D78" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -6774,6 +7406,9 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
+      <c r="C80" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -6814,6 +7449,9 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
+      <c r="D81" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -6854,6 +7492,9 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
+      <c r="D82" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -6894,8 +7535,6 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -6935,897 +7574,893 @@
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
-      <c r="Z84" s="10"/>
-      <c r="AA84" s="10"/>
-      <c r="AB84" s="10"/>
-      <c r="AC84" s="10"/>
-      <c r="AD84" s="10"/>
-      <c r="AE84" s="10"/>
-      <c r="AF84" s="10"/>
-      <c r="AG84" s="10"/>
-      <c r="AH84" s="10"/>
-      <c r="AI84" s="10"/>
-      <c r="AJ84" s="10"/>
-      <c r="AK84" s="10"/>
-      <c r="AL84" s="10"/>
-      <c r="AM84" s="11"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="8"/>
+      <c r="P84" s="8"/>
+      <c r="Q84" s="8"/>
+      <c r="R84" s="8"/>
+      <c r="S84" s="8"/>
+      <c r="T84" s="8"/>
+      <c r="U84" s="8"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="8"/>
+      <c r="X84" s="8"/>
+      <c r="Y84" s="8"/>
+      <c r="Z84" s="8"/>
+      <c r="AA84" s="8"/>
+      <c r="AB84" s="8"/>
+      <c r="AC84" s="8"/>
+      <c r="AD84" s="8"/>
+      <c r="AE84" s="8"/>
+      <c r="AF84" s="8"/>
+      <c r="AG84" s="8"/>
+      <c r="AH84" s="8"/>
+      <c r="AI84" s="8"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="8"/>
+      <c r="AL84" s="8"/>
+      <c r="AM84" s="7"/>
       <c r="AN84" s="7"/>
     </row>
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="9"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
-      <c r="Z85" s="10"/>
-      <c r="AA85" s="10"/>
-      <c r="AB85" s="10"/>
-      <c r="AC85" s="10"/>
-      <c r="AD85" s="10"/>
-      <c r="AE85" s="10"/>
-      <c r="AF85" s="10"/>
-      <c r="AG85" s="10"/>
-      <c r="AH85" s="10"/>
-      <c r="AI85" s="10"/>
-      <c r="AJ85" s="10"/>
-      <c r="AK85" s="10"/>
-      <c r="AL85" s="10"/>
-      <c r="AM85" s="10"/>
-      <c r="AN85" s="11"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="D85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="8"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="8"/>
+      <c r="S85" s="8"/>
+      <c r="T85" s="8"/>
+      <c r="U85" s="8"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="8"/>
+      <c r="X85" s="8"/>
+      <c r="Y85" s="8"/>
+      <c r="Z85" s="8"/>
+      <c r="AA85" s="8"/>
+      <c r="AB85" s="8"/>
+      <c r="AC85" s="8"/>
+      <c r="AD85" s="8"/>
+      <c r="AE85" s="8"/>
+      <c r="AF85" s="8"/>
+      <c r="AG85" s="8"/>
+      <c r="AH85" s="8"/>
+      <c r="AI85" s="8"/>
+      <c r="AJ85" s="8"/>
+      <c r="AK85" s="8"/>
+      <c r="AL85" s="8"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
     </row>
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
-      <c r="V86" s="4"/>
-      <c r="W86" s="4"/>
-      <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="Z86" s="4"/>
-      <c r="AA86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AD86" s="4"/>
-      <c r="AE86" s="4"/>
-      <c r="AF86" s="4"/>
-      <c r="AG86" s="4"/>
-      <c r="AH86" s="4"/>
-      <c r="AI86" s="4"/>
-      <c r="AJ86" s="4"/>
-      <c r="AK86" s="4"/>
-      <c r="AL86" s="4"/>
-      <c r="AM86" s="4"/>
-      <c r="AN86" s="5"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="8"/>
+      <c r="Q86" s="8"/>
+      <c r="R86" s="8"/>
+      <c r="S86" s="8"/>
+      <c r="T86" s="8"/>
+      <c r="U86" s="8"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="8"/>
+      <c r="X86" s="8"/>
+      <c r="Y86" s="8"/>
+      <c r="Z86" s="8"/>
+      <c r="AA86" s="8"/>
+      <c r="AB86" s="8"/>
+      <c r="AC86" s="8"/>
+      <c r="AD86" s="8"/>
+      <c r="AE86" s="8"/>
+      <c r="AF86" s="8"/>
+      <c r="AG86" s="8"/>
+      <c r="AH86" s="8"/>
+      <c r="AI86" s="8"/>
+      <c r="AJ86" s="8"/>
+      <c r="AK86" s="8"/>
+      <c r="AL86" s="8"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
     </row>
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
-      <c r="B87" s="3" t="s">
-        <v>10</v>
+      <c r="B87" s="6"/>
+      <c r="C87" s="1" t="s">
+        <v>144</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
-      <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AD87" s="4"/>
-      <c r="AE87" s="4"/>
-      <c r="AF87" s="4"/>
-      <c r="AG87" s="4"/>
-      <c r="AH87" s="4"/>
-      <c r="AI87" s="4"/>
-      <c r="AJ87" s="4"/>
-      <c r="AK87" s="4"/>
-      <c r="AL87" s="4"/>
-      <c r="AM87" s="5"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="8"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="8"/>
+      <c r="S87" s="8"/>
+      <c r="T87" s="8"/>
+      <c r="U87" s="8"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="8"/>
+      <c r="X87" s="8"/>
+      <c r="Y87" s="8"/>
+      <c r="Z87" s="8"/>
+      <c r="AA87" s="8"/>
+      <c r="AB87" s="8"/>
+      <c r="AC87" s="8"/>
+      <c r="AD87" s="8"/>
+      <c r="AE87" s="8"/>
+      <c r="AF87" s="8"/>
+      <c r="AG87" s="8"/>
+      <c r="AH87" s="8"/>
+      <c r="AI87" s="8"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
+      <c r="AL87" s="8"/>
+      <c r="AM87" s="7"/>
       <c r="AN87" s="7"/>
     </row>
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2"/>
-      <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="2"/>
-      <c r="AF88" s="2"/>
-      <c r="AG88" s="2"/>
-      <c r="AH88" s="2"/>
-      <c r="AI88" s="2"/>
-      <c r="AJ88" s="2"/>
-      <c r="AK88" s="2"/>
-      <c r="AL88" s="2"/>
+      <c r="D88" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="8"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="8"/>
+      <c r="S88" s="8"/>
+      <c r="T88" s="8"/>
+      <c r="U88" s="8"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="8"/>
+      <c r="X88" s="8"/>
+      <c r="Y88" s="8"/>
+      <c r="Z88" s="8"/>
+      <c r="AA88" s="8"/>
+      <c r="AB88" s="8"/>
+      <c r="AC88" s="8"/>
+      <c r="AD88" s="8"/>
+      <c r="AE88" s="8"/>
+      <c r="AF88" s="8"/>
+      <c r="AG88" s="8"/>
+      <c r="AH88" s="8"/>
+      <c r="AI88" s="8"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
+      <c r="AL88" s="8"/>
       <c r="AM88" s="7"/>
       <c r="AN88" s="7"/>
     </row>
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="6"/>
+      <c r="D89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="8"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="8"/>
+      <c r="S89" s="8"/>
+      <c r="T89" s="8"/>
+      <c r="U89" s="8"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8"/>
+      <c r="AA89" s="8"/>
+      <c r="AB89" s="8"/>
+      <c r="AC89" s="8"/>
+      <c r="AD89" s="8"/>
+      <c r="AE89" s="8"/>
+      <c r="AF89" s="8"/>
+      <c r="AG89" s="8"/>
+      <c r="AH89" s="8"/>
+      <c r="AI89" s="8"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
+      <c r="AL89" s="8"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8"/>
+      <c r="AA90" s="8"/>
+      <c r="AB90" s="8"/>
+      <c r="AC90" s="8"/>
+      <c r="AD90" s="8"/>
+      <c r="AE90" s="8"/>
+      <c r="AF90" s="8"/>
+      <c r="AG90" s="8"/>
+      <c r="AH90" s="8"/>
+      <c r="AI90" s="8"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
+      <c r="AL90" s="8"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="8"/>
+      <c r="Q91" s="8"/>
+      <c r="R91" s="8"/>
+      <c r="S91" s="8"/>
+      <c r="T91" s="8"/>
+      <c r="U91" s="8"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8"/>
+      <c r="AA91" s="8"/>
+      <c r="AB91" s="8"/>
+      <c r="AC91" s="8"/>
+      <c r="AD91" s="8"/>
+      <c r="AE91" s="8"/>
+      <c r="AF91" s="8"/>
+      <c r="AG91" s="8"/>
+      <c r="AH91" s="8"/>
+      <c r="AI91" s="8"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
+      <c r="AL91" s="8"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="D92" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="8"/>
+      <c r="Q92" s="8"/>
+      <c r="R92" s="8"/>
+      <c r="S92" s="8"/>
+      <c r="T92" s="8"/>
+      <c r="U92" s="8"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="8"/>
+      <c r="X92" s="8"/>
+      <c r="Y92" s="8"/>
+      <c r="Z92" s="8"/>
+      <c r="AA92" s="8"/>
+      <c r="AB92" s="8"/>
+      <c r="AC92" s="8"/>
+      <c r="AD92" s="8"/>
+      <c r="AE92" s="8"/>
+      <c r="AF92" s="8"/>
+      <c r="AG92" s="8"/>
+      <c r="AH92" s="8"/>
+      <c r="AI92" s="8"/>
+      <c r="AJ92" s="8"/>
+      <c r="AK92" s="8"/>
+      <c r="AL92" s="8"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="D93" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="8"/>
+      <c r="AG93" s="8"/>
+      <c r="AH93" s="8"/>
+      <c r="AI93" s="8"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="8"/>
+      <c r="AL93" s="8"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="8"/>
+      <c r="Q94" s="8"/>
+      <c r="R94" s="8"/>
+      <c r="S94" s="8"/>
+      <c r="T94" s="8"/>
+      <c r="U94" s="8"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="8"/>
+      <c r="X94" s="8"/>
+      <c r="Y94" s="8"/>
+      <c r="Z94" s="8"/>
+      <c r="AA94" s="8"/>
+      <c r="AB94" s="8"/>
+      <c r="AC94" s="8"/>
+      <c r="AD94" s="8"/>
+      <c r="AE94" s="8"/>
+      <c r="AF94" s="8"/>
+      <c r="AG94" s="8"/>
+      <c r="AH94" s="8"/>
+      <c r="AI94" s="8"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="8"/>
+      <c r="AL94" s="8"/>
+      <c r="AM94" s="7"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="8"/>
+      <c r="Q95" s="8"/>
+      <c r="R95" s="8"/>
+      <c r="S95" s="8"/>
+      <c r="T95" s="8"/>
+      <c r="U95" s="8"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8"/>
+      <c r="AA95" s="8"/>
+      <c r="AB95" s="8"/>
+      <c r="AC95" s="8"/>
+      <c r="AD95" s="8"/>
+      <c r="AE95" s="8"/>
+      <c r="AF95" s="8"/>
+      <c r="AG95" s="8"/>
+      <c r="AH95" s="8"/>
+      <c r="AI95" s="8"/>
+      <c r="AJ95" s="8"/>
+      <c r="AK95" s="8"/>
+      <c r="AL95" s="8"/>
+      <c r="AM95" s="7"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="8"/>
+      <c r="Q96" s="8"/>
+      <c r="R96" s="8"/>
+      <c r="S96" s="8"/>
+      <c r="T96" s="8"/>
+      <c r="U96" s="8"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8"/>
+      <c r="AA96" s="8"/>
+      <c r="AB96" s="8"/>
+      <c r="AC96" s="8"/>
+      <c r="AD96" s="8"/>
+      <c r="AE96" s="8"/>
+      <c r="AF96" s="8"/>
+      <c r="AG96" s="8"/>
+      <c r="AH96" s="8"/>
+      <c r="AI96" s="8"/>
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+      <c r="AL96" s="8"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="8"/>
+      <c r="P97" s="8"/>
+      <c r="Q97" s="8"/>
+      <c r="R97" s="8"/>
+      <c r="S97" s="8"/>
+      <c r="T97" s="8"/>
+      <c r="U97" s="8"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8"/>
+      <c r="AA97" s="8"/>
+      <c r="AB97" s="8"/>
+      <c r="AC97" s="8"/>
+      <c r="AD97" s="8"/>
+      <c r="AE97" s="8"/>
+      <c r="AF97" s="8"/>
+      <c r="AG97" s="8"/>
+      <c r="AH97" s="8"/>
+      <c r="AI97" s="8"/>
+      <c r="AJ97" s="8"/>
+      <c r="AK97" s="8"/>
+      <c r="AL97" s="8"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="8"/>
+      <c r="Q98" s="8"/>
+      <c r="R98" s="8"/>
+      <c r="S98" s="8"/>
+      <c r="T98" s="8"/>
+      <c r="U98" s="8"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="8"/>
+      <c r="X98" s="8"/>
+      <c r="Y98" s="8"/>
+      <c r="Z98" s="8"/>
+      <c r="AA98" s="8"/>
+      <c r="AB98" s="8"/>
+      <c r="AC98" s="8"/>
+      <c r="AD98" s="8"/>
+      <c r="AE98" s="8"/>
+      <c r="AF98" s="8"/>
+      <c r="AG98" s="8"/>
+      <c r="AH98" s="8"/>
+      <c r="AI98" s="8"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="8"/>
+      <c r="AL98" s="8"/>
+      <c r="AM98" s="7"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
+      <c r="AD99" s="10"/>
+      <c r="AE99" s="10"/>
+      <c r="AF99" s="10"/>
+      <c r="AG99" s="10"/>
+      <c r="AH99" s="10"/>
+      <c r="AI99" s="10"/>
+      <c r="AJ99" s="10"/>
+      <c r="AK99" s="10"/>
+      <c r="AL99" s="10"/>
+      <c r="AM99" s="11"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="9"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
+      <c r="AD100" s="10"/>
+      <c r="AE100" s="10"/>
+      <c r="AF100" s="10"/>
+      <c r="AG100" s="10"/>
+      <c r="AH100" s="10"/>
+      <c r="AI100" s="10"/>
+      <c r="AJ100" s="10"/>
+      <c r="AK100" s="10"/>
+      <c r="AL100" s="10"/>
+      <c r="AM100" s="10"/>
+      <c r="AN100" s="11"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4"/>
+      <c r="AF101" s="4"/>
+      <c r="AG101" s="4"/>
+      <c r="AH101" s="4"/>
+      <c r="AI101" s="4"/>
+      <c r="AJ101" s="4"/>
+      <c r="AK101" s="4"/>
+      <c r="AL101" s="4"/>
+      <c r="AM101" s="4"/>
+      <c r="AN101" s="5"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
+      <c r="AG102" s="4"/>
+      <c r="AH102" s="4"/>
+      <c r="AI102" s="4"/>
+      <c r="AJ102" s="4"/>
+      <c r="AK102" s="4"/>
+      <c r="AL102" s="4"/>
+      <c r="AM102" s="5"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+      <c r="AF103" s="2"/>
+      <c r="AG103" s="2"/>
+      <c r="AH103" s="2"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
+      <c r="AK103" s="2"/>
+      <c r="AL103" s="2"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14" t="s">
+      <c r="C104" s="13"/>
+      <c r="D104" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I89" s="16"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="M89" s="15"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="15"/>
-      <c r="R89" s="17"/>
-      <c r="S89" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="T89" s="17"/>
-      <c r="U89" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="V89" s="17"/>
-      <c r="W89" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="X89" s="15"/>
-      <c r="Y89" s="15"/>
-      <c r="Z89" s="17"/>
-      <c r="AA89" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB89" s="15"/>
-      <c r="AC89" s="17"/>
-      <c r="AD89" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE89" s="15"/>
-      <c r="AF89" s="15"/>
-      <c r="AG89" s="15"/>
-      <c r="AH89" s="15"/>
-      <c r="AI89" s="15"/>
-      <c r="AJ89" s="15"/>
-      <c r="AK89" s="15"/>
-      <c r="AL89" s="15"/>
-      <c r="AM89" s="18"/>
-      <c r="AN89" s="7"/>
-    </row>
-    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="17"/>
-      <c r="S90" s="14"/>
-      <c r="T90" s="17"/>
-      <c r="U90" s="14"/>
-      <c r="V90" s="17"/>
-      <c r="W90" s="14"/>
-      <c r="X90" s="15"/>
-      <c r="Y90" s="15"/>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="15"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="15"/>
-      <c r="AF90" s="15"/>
-      <c r="AG90" s="15"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="15"/>
-      <c r="AJ90" s="15"/>
-      <c r="AK90" s="15"/>
-      <c r="AL90" s="15"/>
-      <c r="AM90" s="18"/>
-      <c r="AN90" s="7"/>
-    </row>
-    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="6"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="17"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="17"/>
-      <c r="U91" s="14"/>
-      <c r="V91" s="17"/>
-      <c r="W91" s="14"/>
-      <c r="X91" s="15"/>
-      <c r="Y91" s="15"/>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="15"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="15"/>
-      <c r="AF91" s="15"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="15"/>
-      <c r="AI91" s="15"/>
-      <c r="AJ91" s="15"/>
-      <c r="AK91" s="15"/>
-      <c r="AL91" s="15"/>
-      <c r="AM91" s="18"/>
-      <c r="AN91" s="7"/>
-    </row>
-    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="6"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="15"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="15"/>
-      <c r="R92" s="17"/>
-      <c r="S92" s="14"/>
-      <c r="T92" s="17"/>
-      <c r="U92" s="14"/>
-      <c r="V92" s="17"/>
-      <c r="W92" s="14"/>
-      <c r="X92" s="15"/>
-      <c r="Y92" s="15"/>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="15"/>
-      <c r="AC92" s="17"/>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="15"/>
-      <c r="AF92" s="15"/>
-      <c r="AG92" s="15"/>
-      <c r="AH92" s="15"/>
-      <c r="AI92" s="15"/>
-      <c r="AJ92" s="15"/>
-      <c r="AK92" s="15"/>
-      <c r="AL92" s="15"/>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="7"/>
-    </row>
-    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="6"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="15"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="15"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="17"/>
-      <c r="S93" s="14"/>
-      <c r="T93" s="17"/>
-      <c r="U93" s="14"/>
-      <c r="V93" s="17"/>
-      <c r="W93" s="14"/>
-      <c r="X93" s="15"/>
-      <c r="Y93" s="15"/>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="15"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="15"/>
-      <c r="AF93" s="15"/>
-      <c r="AG93" s="15"/>
-      <c r="AH93" s="15"/>
-      <c r="AI93" s="15"/>
-      <c r="AJ93" s="15"/>
-      <c r="AK93" s="15"/>
-      <c r="AL93" s="15"/>
-      <c r="AM93" s="18"/>
-      <c r="AN93" s="7"/>
-    </row>
-    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="6"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="15"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="15"/>
-      <c r="R94" s="17"/>
-      <c r="S94" s="14"/>
-      <c r="T94" s="17"/>
-      <c r="U94" s="14"/>
-      <c r="V94" s="17"/>
-      <c r="W94" s="14"/>
-      <c r="X94" s="15"/>
-      <c r="Y94" s="15"/>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="15"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="15"/>
-      <c r="AF94" s="15"/>
-      <c r="AG94" s="15"/>
-      <c r="AH94" s="15"/>
-      <c r="AI94" s="15"/>
-      <c r="AJ94" s="15"/>
-      <c r="AK94" s="15"/>
-      <c r="AL94" s="15"/>
-      <c r="AM94" s="18"/>
-      <c r="AN94" s="7"/>
-    </row>
-    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="6"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="15"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="17"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="17"/>
-      <c r="U95" s="14"/>
-      <c r="V95" s="17"/>
-      <c r="W95" s="14"/>
-      <c r="X95" s="15"/>
-      <c r="Y95" s="15"/>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="15"/>
-      <c r="AC95" s="17"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="15"/>
-      <c r="AF95" s="15"/>
-      <c r="AG95" s="15"/>
-      <c r="AH95" s="15"/>
-      <c r="AI95" s="15"/>
-      <c r="AJ95" s="15"/>
-      <c r="AK95" s="15"/>
-      <c r="AL95" s="15"/>
-      <c r="AM95" s="18"/>
-      <c r="AN95" s="7"/>
-    </row>
-    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="6"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="15"/>
-      <c r="R96" s="17"/>
-      <c r="S96" s="14"/>
-      <c r="T96" s="17"/>
-      <c r="U96" s="14"/>
-      <c r="V96" s="17"/>
-      <c r="W96" s="14"/>
-      <c r="X96" s="15"/>
-      <c r="Y96" s="15"/>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="15"/>
-      <c r="AC96" s="17"/>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="15"/>
-      <c r="AF96" s="15"/>
-      <c r="AG96" s="15"/>
-      <c r="AH96" s="15"/>
-      <c r="AI96" s="15"/>
-      <c r="AJ96" s="15"/>
-      <c r="AK96" s="15"/>
-      <c r="AL96" s="15"/>
-      <c r="AM96" s="18"/>
-      <c r="AN96" s="7"/>
-    </row>
-    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="6"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="15"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="14"/>
-      <c r="P97" s="15"/>
-      <c r="Q97" s="15"/>
-      <c r="R97" s="17"/>
-      <c r="S97" s="14"/>
-      <c r="T97" s="17"/>
-      <c r="U97" s="14"/>
-      <c r="V97" s="17"/>
-      <c r="W97" s="14"/>
-      <c r="X97" s="15"/>
-      <c r="Y97" s="15"/>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="15"/>
-      <c r="AC97" s="17"/>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="15"/>
-      <c r="AF97" s="15"/>
-      <c r="AG97" s="15"/>
-      <c r="AH97" s="15"/>
-      <c r="AI97" s="15"/>
-      <c r="AJ97" s="15"/>
-      <c r="AK97" s="15"/>
-      <c r="AL97" s="15"/>
-      <c r="AM97" s="18"/>
-      <c r="AN97" s="7"/>
-    </row>
-    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="6"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="17"/>
-      <c r="S98" s="14"/>
-      <c r="T98" s="17"/>
-      <c r="U98" s="14"/>
-      <c r="V98" s="17"/>
-      <c r="W98" s="14"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="17"/>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="18"/>
-      <c r="AN98" s="7"/>
-    </row>
-    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="6"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="14"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="14"/>
-      <c r="V99" s="17"/>
-      <c r="W99" s="14"/>
-      <c r="X99" s="15"/>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-      <c r="AK99" s="15"/>
-      <c r="AL99" s="15"/>
-      <c r="AM99" s="18"/>
-      <c r="AN99" s="7"/>
-    </row>
-    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="6"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="14"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="14"/>
-      <c r="V100" s="17"/>
-      <c r="W100" s="14"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
-      <c r="AG100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AI100" s="15"/>
-      <c r="AJ100" s="15"/>
-      <c r="AK100" s="15"/>
-      <c r="AL100" s="15"/>
-      <c r="AM100" s="18"/>
-      <c r="AN100" s="7"/>
-    </row>
-    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="6"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="14"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="14"/>
-      <c r="T101" s="17"/>
-      <c r="U101" s="14"/>
-      <c r="V101" s="17"/>
-      <c r="W101" s="14"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="18"/>
-      <c r="AN101" s="7"/>
-    </row>
-    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="6"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="15"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="15"/>
-      <c r="R102" s="17"/>
-      <c r="S102" s="14"/>
-      <c r="T102" s="17"/>
-      <c r="U102" s="14"/>
-      <c r="V102" s="17"/>
-      <c r="W102" s="14"/>
-      <c r="X102" s="15"/>
-      <c r="Y102" s="15"/>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="14"/>
-      <c r="AB102" s="15"/>
-      <c r="AC102" s="17"/>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="15"/>
-      <c r="AG102" s="15"/>
-      <c r="AH102" s="15"/>
-      <c r="AI102" s="15"/>
-      <c r="AJ102" s="15"/>
-      <c r="AK102" s="15"/>
-      <c r="AL102" s="15"/>
-      <c r="AM102" s="18"/>
-      <c r="AN102" s="7"/>
-    </row>
-    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="6"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="15"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="15"/>
-      <c r="R103" s="17"/>
-      <c r="S103" s="14"/>
-      <c r="T103" s="17"/>
-      <c r="U103" s="14"/>
-      <c r="V103" s="17"/>
-      <c r="W103" s="14"/>
-      <c r="X103" s="15"/>
-      <c r="Y103" s="15"/>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="14"/>
-      <c r="AB103" s="15"/>
-      <c r="AC103" s="17"/>
-      <c r="AD103" s="14"/>
-      <c r="AE103" s="15"/>
-      <c r="AF103" s="15"/>
-      <c r="AG103" s="15"/>
-      <c r="AH103" s="15"/>
-      <c r="AI103" s="15"/>
-      <c r="AJ103" s="15"/>
-      <c r="AK103" s="15"/>
-      <c r="AL103" s="15"/>
-      <c r="AM103" s="18"/>
-      <c r="AN103" s="7"/>
-    </row>
-    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="6"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
       <c r="E104" s="15"/>
       <c r="F104" s="15"/>
       <c r="G104" s="13"/>
-      <c r="H104" s="14"/>
+      <c r="H104" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="I104" s="16"/>
       <c r="J104" s="15"/>
       <c r="K104" s="17"/>
-      <c r="L104" s="14"/>
+      <c r="L104" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="M104" s="15"/>
       <c r="N104" s="17"/>
-      <c r="O104" s="14"/>
+      <c r="O104" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="P104" s="15"/>
       <c r="Q104" s="15"/>
       <c r="R104" s="17"/>
-      <c r="S104" s="14"/>
+      <c r="S104" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="T104" s="17"/>
-      <c r="U104" s="14"/>
+      <c r="U104" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="V104" s="17"/>
-      <c r="W104" s="14"/>
+      <c r="W104" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="X104" s="15"/>
       <c r="Y104" s="15"/>
       <c r="Z104" s="17"/>
-      <c r="AA104" s="14"/>
+      <c r="AA104" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="AB104" s="15"/>
       <c r="AC104" s="17"/>
-      <c r="AD104" s="14"/>
+      <c r="AD104" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="AE104" s="15"/>
       <c r="AF104" s="15"/>
       <c r="AG104" s="15"/>
@@ -8468,54 +9103,679 @@
       <c r="AN119" s="7"/>
     </row>
     <row r="120" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="9"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-      <c r="Q120" s="10"/>
-      <c r="R120" s="10"/>
-      <c r="S120" s="10"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="10"/>
-      <c r="W120" s="10"/>
-      <c r="X120" s="10"/>
-      <c r="Y120" s="10"/>
-      <c r="Z120" s="10"/>
-      <c r="AA120" s="10"/>
-      <c r="AB120" s="10"/>
-      <c r="AC120" s="10"/>
-      <c r="AD120" s="10"/>
-      <c r="AE120" s="10"/>
-      <c r="AF120" s="10"/>
-      <c r="AG120" s="10"/>
-      <c r="AH120" s="10"/>
-      <c r="AI120" s="10"/>
-      <c r="AJ120" s="10"/>
-      <c r="AK120" s="10"/>
-      <c r="AL120" s="10"/>
-      <c r="AM120" s="10"/>
-      <c r="AN120" s="11"/>
+      <c r="A120" s="6"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="15"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="15"/>
+      <c r="R120" s="17"/>
+      <c r="S120" s="14"/>
+      <c r="T120" s="17"/>
+      <c r="U120" s="14"/>
+      <c r="V120" s="17"/>
+      <c r="W120" s="14"/>
+      <c r="X120" s="15"/>
+      <c r="Y120" s="15"/>
+      <c r="Z120" s="17"/>
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="15"/>
+      <c r="AC120" s="17"/>
+      <c r="AD120" s="14"/>
+      <c r="AE120" s="15"/>
+      <c r="AF120" s="15"/>
+      <c r="AG120" s="15"/>
+      <c r="AH120" s="15"/>
+      <c r="AI120" s="15"/>
+      <c r="AJ120" s="15"/>
+      <c r="AK120" s="15"/>
+      <c r="AL120" s="15"/>
+      <c r="AM120" s="18"/>
+      <c r="AN120" s="7"/>
+    </row>
+    <row r="121" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="6"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="15"/>
+      <c r="R121" s="17"/>
+      <c r="S121" s="14"/>
+      <c r="T121" s="17"/>
+      <c r="U121" s="14"/>
+      <c r="V121" s="17"/>
+      <c r="W121" s="14"/>
+      <c r="X121" s="15"/>
+      <c r="Y121" s="15"/>
+      <c r="Z121" s="17"/>
+      <c r="AA121" s="14"/>
+      <c r="AB121" s="15"/>
+      <c r="AC121" s="17"/>
+      <c r="AD121" s="14"/>
+      <c r="AE121" s="15"/>
+      <c r="AF121" s="15"/>
+      <c r="AG121" s="15"/>
+      <c r="AH121" s="15"/>
+      <c r="AI121" s="15"/>
+      <c r="AJ121" s="15"/>
+      <c r="AK121" s="15"/>
+      <c r="AL121" s="15"/>
+      <c r="AM121" s="18"/>
+      <c r="AN121" s="7"/>
+    </row>
+    <row r="122" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="6"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="14"/>
+      <c r="M122" s="15"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="14"/>
+      <c r="P122" s="15"/>
+      <c r="Q122" s="15"/>
+      <c r="R122" s="17"/>
+      <c r="S122" s="14"/>
+      <c r="T122" s="17"/>
+      <c r="U122" s="14"/>
+      <c r="V122" s="17"/>
+      <c r="W122" s="14"/>
+      <c r="X122" s="15"/>
+      <c r="Y122" s="15"/>
+      <c r="Z122" s="17"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="15"/>
+      <c r="AC122" s="17"/>
+      <c r="AD122" s="14"/>
+      <c r="AE122" s="15"/>
+      <c r="AF122" s="15"/>
+      <c r="AG122" s="15"/>
+      <c r="AH122" s="15"/>
+      <c r="AI122" s="15"/>
+      <c r="AJ122" s="15"/>
+      <c r="AK122" s="15"/>
+      <c r="AL122" s="15"/>
+      <c r="AM122" s="18"/>
+      <c r="AN122" s="7"/>
+    </row>
+    <row r="123" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="6"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="14"/>
+      <c r="M123" s="15"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="14"/>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="15"/>
+      <c r="R123" s="17"/>
+      <c r="S123" s="14"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="14"/>
+      <c r="V123" s="17"/>
+      <c r="W123" s="14"/>
+      <c r="X123" s="15"/>
+      <c r="Y123" s="15"/>
+      <c r="Z123" s="17"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="15"/>
+      <c r="AC123" s="17"/>
+      <c r="AD123" s="14"/>
+      <c r="AE123" s="15"/>
+      <c r="AF123" s="15"/>
+      <c r="AG123" s="15"/>
+      <c r="AH123" s="15"/>
+      <c r="AI123" s="15"/>
+      <c r="AJ123" s="15"/>
+      <c r="AK123" s="15"/>
+      <c r="AL123" s="15"/>
+      <c r="AM123" s="18"/>
+      <c r="AN123" s="7"/>
+    </row>
+    <row r="124" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="6"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="14"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="14"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="15"/>
+      <c r="R124" s="17"/>
+      <c r="S124" s="14"/>
+      <c r="T124" s="17"/>
+      <c r="U124" s="14"/>
+      <c r="V124" s="17"/>
+      <c r="W124" s="14"/>
+      <c r="X124" s="15"/>
+      <c r="Y124" s="15"/>
+      <c r="Z124" s="17"/>
+      <c r="AA124" s="14"/>
+      <c r="AB124" s="15"/>
+      <c r="AC124" s="17"/>
+      <c r="AD124" s="14"/>
+      <c r="AE124" s="15"/>
+      <c r="AF124" s="15"/>
+      <c r="AG124" s="15"/>
+      <c r="AH124" s="15"/>
+      <c r="AI124" s="15"/>
+      <c r="AJ124" s="15"/>
+      <c r="AK124" s="15"/>
+      <c r="AL124" s="15"/>
+      <c r="AM124" s="18"/>
+      <c r="AN124" s="7"/>
+    </row>
+    <row r="125" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="6"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="14"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="14"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="15"/>
+      <c r="R125" s="17"/>
+      <c r="S125" s="14"/>
+      <c r="T125" s="17"/>
+      <c r="U125" s="14"/>
+      <c r="V125" s="17"/>
+      <c r="W125" s="14"/>
+      <c r="X125" s="15"/>
+      <c r="Y125" s="15"/>
+      <c r="Z125" s="17"/>
+      <c r="AA125" s="14"/>
+      <c r="AB125" s="15"/>
+      <c r="AC125" s="17"/>
+      <c r="AD125" s="14"/>
+      <c r="AE125" s="15"/>
+      <c r="AF125" s="15"/>
+      <c r="AG125" s="15"/>
+      <c r="AH125" s="15"/>
+      <c r="AI125" s="15"/>
+      <c r="AJ125" s="15"/>
+      <c r="AK125" s="15"/>
+      <c r="AL125" s="15"/>
+      <c r="AM125" s="18"/>
+      <c r="AN125" s="7"/>
+    </row>
+    <row r="126" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="6"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="14"/>
+      <c r="M126" s="15"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="14"/>
+      <c r="P126" s="15"/>
+      <c r="Q126" s="15"/>
+      <c r="R126" s="17"/>
+      <c r="S126" s="14"/>
+      <c r="T126" s="17"/>
+      <c r="U126" s="14"/>
+      <c r="V126" s="17"/>
+      <c r="W126" s="14"/>
+      <c r="X126" s="15"/>
+      <c r="Y126" s="15"/>
+      <c r="Z126" s="17"/>
+      <c r="AA126" s="14"/>
+      <c r="AB126" s="15"/>
+      <c r="AC126" s="17"/>
+      <c r="AD126" s="14"/>
+      <c r="AE126" s="15"/>
+      <c r="AF126" s="15"/>
+      <c r="AG126" s="15"/>
+      <c r="AH126" s="15"/>
+      <c r="AI126" s="15"/>
+      <c r="AJ126" s="15"/>
+      <c r="AK126" s="15"/>
+      <c r="AL126" s="15"/>
+      <c r="AM126" s="18"/>
+      <c r="AN126" s="7"/>
+    </row>
+    <row r="127" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="6"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="14"/>
+      <c r="M127" s="15"/>
+      <c r="N127" s="17"/>
+      <c r="O127" s="14"/>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="15"/>
+      <c r="R127" s="17"/>
+      <c r="S127" s="14"/>
+      <c r="T127" s="17"/>
+      <c r="U127" s="14"/>
+      <c r="V127" s="17"/>
+      <c r="W127" s="14"/>
+      <c r="X127" s="15"/>
+      <c r="Y127" s="15"/>
+      <c r="Z127" s="17"/>
+      <c r="AA127" s="14"/>
+      <c r="AB127" s="15"/>
+      <c r="AC127" s="17"/>
+      <c r="AD127" s="14"/>
+      <c r="AE127" s="15"/>
+      <c r="AF127" s="15"/>
+      <c r="AG127" s="15"/>
+      <c r="AH127" s="15"/>
+      <c r="AI127" s="15"/>
+      <c r="AJ127" s="15"/>
+      <c r="AK127" s="15"/>
+      <c r="AL127" s="15"/>
+      <c r="AM127" s="18"/>
+      <c r="AN127" s="7"/>
+    </row>
+    <row r="128" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="6"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="14"/>
+      <c r="M128" s="15"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="14"/>
+      <c r="P128" s="15"/>
+      <c r="Q128" s="15"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="14"/>
+      <c r="T128" s="17"/>
+      <c r="U128" s="14"/>
+      <c r="V128" s="17"/>
+      <c r="W128" s="14"/>
+      <c r="X128" s="15"/>
+      <c r="Y128" s="15"/>
+      <c r="Z128" s="17"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="15"/>
+      <c r="AC128" s="17"/>
+      <c r="AD128" s="14"/>
+      <c r="AE128" s="15"/>
+      <c r="AF128" s="15"/>
+      <c r="AG128" s="15"/>
+      <c r="AH128" s="15"/>
+      <c r="AI128" s="15"/>
+      <c r="AJ128" s="15"/>
+      <c r="AK128" s="15"/>
+      <c r="AL128" s="15"/>
+      <c r="AM128" s="18"/>
+      <c r="AN128" s="7"/>
+    </row>
+    <row r="129" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="6"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="14"/>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="15"/>
+      <c r="R129" s="17"/>
+      <c r="S129" s="14"/>
+      <c r="T129" s="17"/>
+      <c r="U129" s="14"/>
+      <c r="V129" s="17"/>
+      <c r="W129" s="14"/>
+      <c r="X129" s="15"/>
+      <c r="Y129" s="15"/>
+      <c r="Z129" s="17"/>
+      <c r="AA129" s="14"/>
+      <c r="AB129" s="15"/>
+      <c r="AC129" s="17"/>
+      <c r="AD129" s="14"/>
+      <c r="AE129" s="15"/>
+      <c r="AF129" s="15"/>
+      <c r="AG129" s="15"/>
+      <c r="AH129" s="15"/>
+      <c r="AI129" s="15"/>
+      <c r="AJ129" s="15"/>
+      <c r="AK129" s="15"/>
+      <c r="AL129" s="15"/>
+      <c r="AM129" s="18"/>
+      <c r="AN129" s="7"/>
+    </row>
+    <row r="130" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="6"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="13"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="15"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="15"/>
+      <c r="Q130" s="15"/>
+      <c r="R130" s="17"/>
+      <c r="S130" s="14"/>
+      <c r="T130" s="17"/>
+      <c r="U130" s="14"/>
+      <c r="V130" s="17"/>
+      <c r="W130" s="14"/>
+      <c r="X130" s="15"/>
+      <c r="Y130" s="15"/>
+      <c r="Z130" s="17"/>
+      <c r="AA130" s="14"/>
+      <c r="AB130" s="15"/>
+      <c r="AC130" s="17"/>
+      <c r="AD130" s="14"/>
+      <c r="AE130" s="15"/>
+      <c r="AF130" s="15"/>
+      <c r="AG130" s="15"/>
+      <c r="AH130" s="15"/>
+      <c r="AI130" s="15"/>
+      <c r="AJ130" s="15"/>
+      <c r="AK130" s="15"/>
+      <c r="AL130" s="15"/>
+      <c r="AM130" s="18"/>
+      <c r="AN130" s="7"/>
+    </row>
+    <row r="131" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="6"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="13"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="15"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="15"/>
+      <c r="R131" s="17"/>
+      <c r="S131" s="14"/>
+      <c r="T131" s="17"/>
+      <c r="U131" s="14"/>
+      <c r="V131" s="17"/>
+      <c r="W131" s="14"/>
+      <c r="X131" s="15"/>
+      <c r="Y131" s="15"/>
+      <c r="Z131" s="17"/>
+      <c r="AA131" s="14"/>
+      <c r="AB131" s="15"/>
+      <c r="AC131" s="17"/>
+      <c r="AD131" s="14"/>
+      <c r="AE131" s="15"/>
+      <c r="AF131" s="15"/>
+      <c r="AG131" s="15"/>
+      <c r="AH131" s="15"/>
+      <c r="AI131" s="15"/>
+      <c r="AJ131" s="15"/>
+      <c r="AK131" s="15"/>
+      <c r="AL131" s="15"/>
+      <c r="AM131" s="18"/>
+      <c r="AN131" s="7"/>
+    </row>
+    <row r="132" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="6"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="13"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="15"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="15"/>
+      <c r="Q132" s="15"/>
+      <c r="R132" s="17"/>
+      <c r="S132" s="14"/>
+      <c r="T132" s="17"/>
+      <c r="U132" s="14"/>
+      <c r="V132" s="17"/>
+      <c r="W132" s="14"/>
+      <c r="X132" s="15"/>
+      <c r="Y132" s="15"/>
+      <c r="Z132" s="17"/>
+      <c r="AA132" s="14"/>
+      <c r="AB132" s="15"/>
+      <c r="AC132" s="17"/>
+      <c r="AD132" s="14"/>
+      <c r="AE132" s="15"/>
+      <c r="AF132" s="15"/>
+      <c r="AG132" s="15"/>
+      <c r="AH132" s="15"/>
+      <c r="AI132" s="15"/>
+      <c r="AJ132" s="15"/>
+      <c r="AK132" s="15"/>
+      <c r="AL132" s="15"/>
+      <c r="AM132" s="18"/>
+      <c r="AN132" s="7"/>
+    </row>
+    <row r="133" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="6"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="13"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="15"/>
+      <c r="N133" s="17"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="15"/>
+      <c r="R133" s="17"/>
+      <c r="S133" s="14"/>
+      <c r="T133" s="17"/>
+      <c r="U133" s="14"/>
+      <c r="V133" s="17"/>
+      <c r="W133" s="14"/>
+      <c r="X133" s="15"/>
+      <c r="Y133" s="15"/>
+      <c r="Z133" s="17"/>
+      <c r="AA133" s="14"/>
+      <c r="AB133" s="15"/>
+      <c r="AC133" s="17"/>
+      <c r="AD133" s="14"/>
+      <c r="AE133" s="15"/>
+      <c r="AF133" s="15"/>
+      <c r="AG133" s="15"/>
+      <c r="AH133" s="15"/>
+      <c r="AI133" s="15"/>
+      <c r="AJ133" s="15"/>
+      <c r="AK133" s="15"/>
+      <c r="AL133" s="15"/>
+      <c r="AM133" s="18"/>
+      <c r="AN133" s="7"/>
+    </row>
+    <row r="134" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="6"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="13"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="15"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="14"/>
+      <c r="P134" s="15"/>
+      <c r="Q134" s="15"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="14"/>
+      <c r="T134" s="17"/>
+      <c r="U134" s="14"/>
+      <c r="V134" s="17"/>
+      <c r="W134" s="14"/>
+      <c r="X134" s="15"/>
+      <c r="Y134" s="15"/>
+      <c r="Z134" s="17"/>
+      <c r="AA134" s="14"/>
+      <c r="AB134" s="15"/>
+      <c r="AC134" s="17"/>
+      <c r="AD134" s="14"/>
+      <c r="AE134" s="15"/>
+      <c r="AF134" s="15"/>
+      <c r="AG134" s="15"/>
+      <c r="AH134" s="15"/>
+      <c r="AI134" s="15"/>
+      <c r="AJ134" s="15"/>
+      <c r="AK134" s="15"/>
+      <c r="AL134" s="15"/>
+      <c r="AM134" s="18"/>
+      <c r="AN134" s="7"/>
+    </row>
+    <row r="135" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="9"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+      <c r="X135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
+      <c r="AA135" s="10"/>
+      <c r="AB135" s="10"/>
+      <c r="AC135" s="10"/>
+      <c r="AD135" s="10"/>
+      <c r="AE135" s="10"/>
+      <c r="AF135" s="10"/>
+      <c r="AG135" s="10"/>
+      <c r="AH135" s="10"/>
+      <c r="AI135" s="10"/>
+      <c r="AJ135" s="10"/>
+      <c r="AK135" s="10"/>
+      <c r="AL135" s="10"/>
+      <c r="AM135" s="10"/>
+      <c r="AN135" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -8528,6 +9788,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -8552,192 +9817,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -13230,6 +14495,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -13246,7 +14512,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13271,192 +14536,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18197,11 +19462,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -18214,6 +19474,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18238,192 +19503,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -23128,11 +24393,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -23145,6 +24405,11 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23169,192 +24434,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -27801,6 +29066,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -27817,7 +29083,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27842,192 +29107,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -30450,7 +31715,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="D64" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -32675,6 +33940,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -32691,7 +33957,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32716,192 +33981,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -37491,6 +38756,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -37507,7 +38773,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37532,192 +38797,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -42260,6 +43525,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -42276,7 +43542,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -42301,192 +43566,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -47146,6 +48411,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -47162,7 +48428,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -47187,192 +48452,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="33" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="37"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="35" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="36" t="s">
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="40"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="35" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35" t="s">
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="35"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="35"/>
-      <c r="AA3" s="35"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="35"/>
-      <c r="AF3" s="40" t="s">
+      <c r="X3" s="22"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="22"/>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="22"/>
+      <c r="AF3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="22"/>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22"/>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22"/>
-      <c r="AN3" s="23"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="26"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="24" t="s">
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="29"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -51865,6 +53130,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -51881,7 +53147,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
